--- a/contraintesModelio.xlsx
+++ b/contraintesModelio.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">has unit: Joules</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t xml:space="preserve">has unit: minutes or hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: nmoles/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max=100 </t>
   </si>
 </sst>
 </file>
@@ -143,15 +152,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,6 +201,21 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -218,7 +242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -244,7 +268,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/contraintesModelio.xlsx
+++ b/contraintesModelio.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">has unit: Joules</t>
   </si>
   <si>
-    <t xml:space="preserve">nullable</t>
+    <t xml:space="preserve">nullable : NA, LD, LQ</t>
   </si>
   <si>
     <t xml:space="preserve">has unit: mL</t>
@@ -155,12 +155,12 @@
   <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,7 +242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -268,7 +268,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/contraintesModelio.xlsx
+++ b/contraintesModelio.xlsx
@@ -22,39 +22,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">has unit: celsius</t>
+  </si>
   <si>
     <t xml:space="preserve">has unit: Joules</t>
   </si>
   <si>
+    <t xml:space="preserve">has unit: mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: minutes or hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: mL or mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: nmoles/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max=100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">nullable : NA, LD, LQ</t>
   </si>
   <si>
-    <t xml:space="preserve">has unit: mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: mL or mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: celsius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: minutes or hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: nmoles/ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max=100 </t>
+    <t xml:space="preserve">has unit : µg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: ng/µL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: kDa or kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: pixel/µm</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,6 +101,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,8 +151,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -152,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A12"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,61 +188,87 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/contraintesModelio.xlsx
+++ b/contraintesModelio.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">has unit: celsius</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t xml:space="preserve">has unit: pixel/µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: µm²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: L/mol/cm</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,12 +110,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +159,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +271,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/contraintesModelio.xlsx
+++ b/contraintesModelio.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">has unit: celsius</t>
   </si>
@@ -42,16 +42,16 @@
     <t xml:space="preserve">has unit: mL</t>
   </si>
   <si>
-    <t xml:space="preserve">has unit: mL or mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has unit: nmoles/ml</t>
+    <t xml:space="preserve">has unit: µL or mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: nmole/ml</t>
   </si>
   <si>
     <t xml:space="preserve">max=100 </t>
   </si>
   <si>
-    <t xml:space="preserve">min=0</t>
+    <t xml:space="preserve">min&gt;0</t>
   </si>
   <si>
     <t xml:space="preserve">nullable : NA, LD, LQ</t>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t xml:space="preserve">has unit: L/mol/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: mmol/L or mg/L or µmol/L or g/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: µmole/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has unit: hours</t>
   </si>
 </sst>
 </file>
@@ -180,15 +195,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,6 +300,31 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
